--- a/school/static/school/media/excel_templates/Student_List_Sheet.xlsx
+++ b/school/static/school/media/excel_templates/Student_List_Sheet.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="175">
   <si>
     <t>Student Id</t>
   </si>
@@ -118,7 +118,10 @@
     <t>Lance</t>
   </si>
   <si>
-    <t>1</t>
+    <t>Male</t>
+  </si>
+  <si>
+    <t>Islam</t>
   </si>
   <si>
     <t>1979-02-16</t>
@@ -130,7 +133,7 @@
     <t>0165478965</t>
   </si>
   <si>
-    <t>2</t>
+    <t>A+</t>
   </si>
   <si>
     <t>209</t>
@@ -187,10 +190,10 @@
     <t>Moana</t>
   </si>
   <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>True</t>
+    <t>General student</t>
+  </si>
+  <si>
+    <t>Active</t>
   </si>
   <si>
     <t>142</t>
@@ -202,9 +205,6 @@
     <t>Mahamud</t>
   </si>
   <si>
-    <t>4</t>
-  </si>
-  <si>
     <t>1971-08-15</t>
   </si>
   <si>
@@ -214,7 +214,7 @@
     <t>0152878566</t>
   </si>
   <si>
-    <t>7</t>
+    <t>B+</t>
   </si>
   <si>
     <t>537</t>
@@ -256,7 +256,7 @@
     <t>Brittany</t>
   </si>
   <si>
-    <t>False</t>
+    <t>Inactive</t>
   </si>
   <si>
     <t>807</t>
@@ -268,6 +268,12 @@
     <t>Brock</t>
   </si>
   <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Christianity</t>
+  </si>
+  <si>
     <t>1981-12-21</t>
   </si>
   <si>
@@ -277,6 +283,9 @@
     <t>0145879665</t>
   </si>
   <si>
+    <t>O+</t>
+  </si>
+  <si>
     <t>895</t>
   </si>
   <si>
@@ -328,9 +337,6 @@
     <t>Pamela</t>
   </si>
   <si>
-    <t>8</t>
-  </si>
-  <si>
     <t>756</t>
   </si>
   <si>
@@ -370,6 +376,9 @@
     <t>Hanna</t>
   </si>
   <si>
+    <t>Full fee scholarship</t>
+  </si>
+  <si>
     <t>264</t>
   </si>
   <si>
@@ -385,6 +394,9 @@
     <t>Garth</t>
   </si>
   <si>
+    <t>AB+</t>
+  </si>
+  <si>
     <t>57</t>
   </si>
   <si>
@@ -421,6 +433,9 @@
     <t>Yoko</t>
   </si>
   <si>
+    <t>Half fee scholarship</t>
+  </si>
+  <si>
     <t>125</t>
   </si>
   <si>
@@ -430,9 +445,6 @@
     <t>Nehru</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
     <t>1975-08-06</t>
   </si>
   <si>
@@ -479,9 +491,6 @@
   </si>
   <si>
     <t>Driscoll</t>
-  </si>
-  <si>
-    <t>6</t>
   </si>
   <si>
     <t>2018-06-15</t>
@@ -979,96 +988,96 @@
         <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H2" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I2" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="M2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="N2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="O2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="S2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="X2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="Z2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="AA2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="AB2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="AC2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="AD2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:30">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D3" t="s">
         <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="F3" t="s">
         <v>62</v>
@@ -1095,10 +1104,10 @@
         <v>69</v>
       </c>
       <c r="O3" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q3" t="s">
         <v>70</v>
@@ -1107,13 +1116,13 @@
         <v>71</v>
       </c>
       <c r="S3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U3" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V3" t="s">
         <v>72</v>
@@ -1137,7 +1146,7 @@
         <v>78</v>
       </c>
       <c r="AC3" t="s">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="AD3" t="s">
         <v>79</v>
@@ -1154,79 +1163,79 @@
         <v>82</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="H4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I4" t="s">
-        <v>65</v>
+        <v>88</v>
       </c>
       <c r="K4" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="L4" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="M4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R4" t="s">
         <v>71</v>
       </c>
       <c r="S4" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U4" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V4" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="W4" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="X4" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Y4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Z4" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="AA4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="AB4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="AC4" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="AD4" t="s">
         <v>79</v>
@@ -1234,49 +1243,49 @@
     </row>
     <row r="5" spans="1:30">
       <c r="A5" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B5" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C5" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="D5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F5" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I5" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="K5" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="L5" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="M5" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="N5" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="O5" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q5" t="s">
         <v>70</v>
@@ -1285,37 +1294,37 @@
         <v>71</v>
       </c>
       <c r="S5" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="T5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V5" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="W5" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="X5" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="Y5" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="Z5" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="AA5" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="AB5" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AC5" t="s">
-        <v>61</v>
+        <v>119</v>
       </c>
       <c r="AD5" t="s">
         <v>79</v>
@@ -1323,177 +1332,171 @@
     </row>
     <row r="6" spans="1:30">
       <c r="A6" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B6" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C6" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="F6" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="G6" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="I6" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="K6" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="L6" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="M6" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="N6" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="O6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R6" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="S6" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="T6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U6" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V6" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="W6" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="X6" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="Y6" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Z6" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="AA6" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="AB6" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="AC6" t="s">
-        <v>61</v>
+        <v>138</v>
       </c>
       <c r="AD6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:30">
       <c r="A7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D7" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>137</v>
+        <v>34</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="G7" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="H7" t="s">
-        <v>140</v>
-      </c>
-      <c r="I7" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="K7" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="L7" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="M7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="N7" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="O7" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="R7" t="s">
         <v>71</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="T7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="U7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="W7" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="X7" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="Y7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="Z7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="AA7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="AB7" t="s">
-        <v>150</v>
-      </c>
-      <c r="AC7" t="s">
-        <v>33</v>
+        <v>154</v>
       </c>
       <c r="AD7" t="s">
         <v>79</v>
@@ -1501,88 +1504,82 @@
     </row>
     <row r="8" spans="1:30">
       <c r="A8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="B8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="D8" t="s">
         <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>154</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="G8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
-      </c>
-      <c r="I8" t="s">
-        <v>141</v>
+        <v>160</v>
       </c>
       <c r="K8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="L8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="M8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="N8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="O8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="P8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Q8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="R8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="S8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="T8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="U8" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="W8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="X8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="Y8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Z8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="AA8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="AB8" t="s">
         <v>72</v>
-      </c>
-      <c r="AC8" t="s">
-        <v>37</v>
       </c>
       <c r="AD8" t="s">
         <v>79</v>

--- a/school/static/school/media/excel_templates/Student_List_Sheet.xlsx
+++ b/school/static/school/media/excel_templates/Student_List_Sheet.xlsx
@@ -256,70 +256,70 @@
     <t>Brittany</t>
   </si>
   <si>
+    <t>807</t>
+  </si>
+  <si>
+    <t>Christian</t>
+  </si>
+  <si>
+    <t>Brock</t>
+  </si>
+  <si>
+    <t>Female</t>
+  </si>
+  <si>
+    <t>Christianity</t>
+  </si>
+  <si>
+    <t>1981-12-21</t>
+  </si>
+  <si>
+    <t>Andrew</t>
+  </si>
+  <si>
+    <t>0145879665</t>
+  </si>
+  <si>
+    <t>O+</t>
+  </si>
+  <si>
+    <t>895</t>
+  </si>
+  <si>
+    <t>405</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>Yuli</t>
+  </si>
+  <si>
+    <t>Briar</t>
+  </si>
+  <si>
+    <t>Inga</t>
+  </si>
+  <si>
+    <t>96</t>
+  </si>
+  <si>
+    <t>Animi facilis sint</t>
+  </si>
+  <si>
+    <t>Est nisi cupiditate</t>
+  </si>
+  <si>
+    <t>Donna</t>
+  </si>
+  <si>
     <t>Inactive</t>
-  </si>
-  <si>
-    <t>807</t>
-  </si>
-  <si>
-    <t>Christian</t>
-  </si>
-  <si>
-    <t>Brock</t>
-  </si>
-  <si>
-    <t>Female</t>
-  </si>
-  <si>
-    <t>Christianity</t>
-  </si>
-  <si>
-    <t>1981-12-21</t>
-  </si>
-  <si>
-    <t>Andrew</t>
-  </si>
-  <si>
-    <t>0145879665</t>
-  </si>
-  <si>
-    <t>O+</t>
-  </si>
-  <si>
-    <t>895</t>
-  </si>
-  <si>
-    <t>405</t>
-  </si>
-  <si>
-    <t>1231</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>Yuli</t>
-  </si>
-  <si>
-    <t>Briar</t>
-  </si>
-  <si>
-    <t>Inga</t>
-  </si>
-  <si>
-    <t>96</t>
-  </si>
-  <si>
-    <t>Animi facilis sint</t>
-  </si>
-  <si>
-    <t>Est nisi cupiditate</t>
-  </si>
-  <si>
-    <t>Donna</t>
   </si>
   <si>
     <t>713</t>
@@ -1149,48 +1149,48 @@
         <v>57</v>
       </c>
       <c r="AD3" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:30">
       <c r="A4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B4" t="s">
         <v>80</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>81</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>82</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>83</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>84</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>85</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>86</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>87</v>
       </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>88</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>89</v>
-      </c>
-      <c r="L4" t="s">
-        <v>90</v>
       </c>
       <c r="M4" t="s">
         <v>42</v>
       </c>
       <c r="N4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="O4" t="s">
         <v>43</v>
@@ -1199,13 +1199,13 @@
         <v>44</v>
       </c>
       <c r="Q4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R4" t="s">
         <v>71</v>
       </c>
       <c r="S4" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T4" t="s">
         <v>48</v>
@@ -1214,31 +1214,31 @@
         <v>49</v>
       </c>
       <c r="V4" t="s">
+        <v>93</v>
+      </c>
+      <c r="W4" t="s">
         <v>94</v>
       </c>
-      <c r="W4" t="s">
+      <c r="X4" t="s">
         <v>95</v>
       </c>
-      <c r="X4" t="s">
+      <c r="Y4" t="s">
         <v>96</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="Z4" t="s">
         <v>97</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AA4" t="s">
         <v>98</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AB4" t="s">
         <v>99</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>100</v>
       </c>
       <c r="AC4" t="s">
         <v>57</v>
       </c>
       <c r="AD4" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:30">
@@ -1264,7 +1264,7 @@
         <v>105</v>
       </c>
       <c r="H5" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I5" t="s">
         <v>65</v>
@@ -1327,7 +1327,7 @@
         <v>119</v>
       </c>
       <c r="AD5" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:30">
@@ -1353,7 +1353,7 @@
         <v>124</v>
       </c>
       <c r="H6" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="I6" t="s">
         <v>125</v>
@@ -1383,7 +1383,7 @@
         <v>130</v>
       </c>
       <c r="S6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="T6" t="s">
         <v>48</v>
@@ -1499,7 +1499,7 @@
         <v>154</v>
       </c>
       <c r="AD7" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
     <row r="8" spans="1:30">
@@ -1546,7 +1546,7 @@
         <v>110</v>
       </c>
       <c r="Q8" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R8" t="s">
         <v>166</v>
@@ -1582,7 +1582,7 @@
         <v>72</v>
       </c>
       <c r="AD8" t="s">
-        <v>79</v>
+        <v>58</v>
       </c>
     </row>
   </sheetData>
